--- a/External_Imports.xlsx
+++ b/External_Imports.xlsx
@@ -34,31 +34,28 @@
     <t>Prefix</t>
   </si>
   <si>
-    <t>RO-CORE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ro.owl</t>
   </si>
   <si>
     <t xml:space="preserve">entity [BFO:0000001]</t>
   </si>
   <si>
+    <t xml:space="preserve">part of [BFO:0000050];</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro.owl</t>
-  </si>
-  <si>
     <t>BFO</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">occurrent [BFO:0000003];</t>
+    <t xml:space="preserve">occurrent [BFO:0000003]; history [BFO:0000182]; process [BFO:0000015]; process profile [BFO:0000144]</t>
   </si>
   <si>
     <t>IAO</t>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal history [BCIO:015161]; personal history part [BCIO:050487]; process attribute [BCIO:043000]; </t>
   </si>
   <si>
     <t xml:space="preserve">"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
@@ -691,103 +691,94 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="42.75">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="42.75">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="42.75">
+    <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" ht="42.75">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="7" ht="14.25"/>
     <row r="8" ht="14.25"/>
     <row r="9" ht="14.25"/>
     <row r="10" ht="14.25"/>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
-    <row r="14" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/External_Imports.xlsx
+++ b/External_Imports.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">entity [BFO:0000001]</t>
   </si>
   <si>
-    <t xml:space="preserve">part of [BFO:0000050];</t>
+    <t xml:space="preserve">part of [BFO:0000050]</t>
   </si>
   <si>
     <t>all</t>

--- a/External_Imports.xlsx
+++ b/External_Imports.xlsx
@@ -82,7 +82,7 @@
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">personal history [BCIO:015161]; personal history part [BCIO:050487]; process attribute [BCIO:043000]; </t>
+    <t xml:space="preserve">personal history [BCIO:015161]; personal history part [BCIO:050487]; process attribute [BCIO:043000]</t>
   </si>
   <si>
     <t xml:space="preserve">"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>

--- a/External_Imports.xlsx
+++ b/External_Imports.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D3C688-2086-49B8-BCC7-4F894F1610B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Ontology ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+  <si>
+    <t>Ontology ID</t>
   </si>
   <si>
     <t>PURL</t>
@@ -40,10 +46,10 @@
     <t>http://purl.obolibrary.org/obo/ro.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">entity [BFO:0000001]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">part of [BFO:0000050]</t>
+    <t>entity [BFO:0000001]</t>
+  </si>
+  <si>
+    <t>part of [BFO:0000050]</t>
   </si>
   <si>
     <t>all</t>
@@ -55,7 +61,7 @@
     <t>https://raw.githubusercontent.com/BFO-ontology/BFO/releases/2014-05-03/owl-group/bfo.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">occurrent [BFO:0000003]; history [BFO:0000182]; process [BFO:0000015]; process profile [BFO:0000144]</t>
+    <t>occurrent [BFO:0000003]; history [BFO:0000182]; process [BFO:0000015]; process profile [BFO:0000144]</t>
   </si>
   <si>
     <t>IAO</t>
@@ -64,7 +70,7 @@
     <t>http://purl.obolibrary.org/obo/iao.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">is about [IAO:0000136]; curation status specification [IAO:0000078]; has curation status [IAO:0000114]</t>
+    <t>is about [IAO:0000136]; curation status specification [IAO:0000078]; has curation status [IAO:0000114]</t>
   </si>
   <si>
     <t>ADDICTO</t>
@@ -73,7 +79,7 @@
     <t>https://raw.githubusercontent.com/addicto-org/addiction-ontology/master/addicto.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
+    <t>"ADDICTO: http://addictovocab.org/ADDICTO_"</t>
   </si>
   <si>
     <t>BCIO</t>
@@ -82,26 +88,30 @@
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
   </si>
   <si>
-    <t xml:space="preserve">personal history [BCIO:015161]; personal history part [BCIO:050487]; process attribute [BCIO:043000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
+    <t>personal history [BCIO:015161]; personal history part [BCIO:050487]; process attribute [BCIO:043000]</t>
+  </si>
+  <si>
+    <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
+  </si>
+  <si>
+    <t>addiction [ADDICTO:0000349]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.000000"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,19 +132,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="0" pivotButton="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="0" pivotButton="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0">
-      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -146,295 +150,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,29 +363,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="12.421875"/>
-    <col bestFit="1" min="2" max="2" width="83.28125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="31.00390625"/>
-    <col customWidth="1" min="4" max="4" width="36.421875"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1"/>
+    <col min="2" max="2" width="83.28515625" bestFit="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -698,7 +420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="42.75">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -715,7 +437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="42.75">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -725,14 +447,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -742,8 +464,8 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -752,37 +474,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="42.75">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25"/>
-    <row r="9" ht="14.25"/>
-    <row r="10" ht="14.25"/>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
-    <row r="13" ht="14.25"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>